--- a/sds_merck/merck_usa_sds1.xlsx
+++ b/sds_merck/merck_usa_sds1.xlsx
@@ -564,7 +564,7 @@
     <t>https://www.merck.com/docs/product/safety-data-sheets/ah-sds/300000048391_ERD_US_2_EN.pdf</t>
   </si>
   <si>
-    <t>links</t>
+    <t>Links</t>
   </si>
 </sst>
 </file>
@@ -906,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
